--- a/kế hoạch từ điển.xlsx
+++ b/kế hoạch từ điển.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Đề tài : Xây dựng từ điển Anh Việt bằng tìm kiếm nhị phân</t>
   </si>
@@ -74,16 +74,34 @@
     <t xml:space="preserve">Hoàn thiện giao diện </t>
   </si>
   <si>
-    <t>20/9-20/10</t>
-  </si>
-  <si>
-    <t>20/10-10/11</t>
-  </si>
-  <si>
-    <t>10/11-30/11</t>
-  </si>
-  <si>
-    <t>1/12-Cuối khóa</t>
+    <t>Sửa chữa, viết báo cáo, hoàn thiện</t>
+  </si>
+  <si>
+    <t>Phân tích các chức năng của từ điển</t>
+  </si>
+  <si>
+    <t>Tìm cách áp dụng đưa cây nhị phân vào từ điển</t>
+  </si>
+  <si>
+    <t>20/9          -        1/10</t>
+  </si>
+  <si>
+    <t>1/10          -        20/10</t>
+  </si>
+  <si>
+    <t>20/9          -        20/10</t>
+  </si>
+  <si>
+    <t>20/10        -        10/11</t>
+  </si>
+  <si>
+    <t>10/11        -        30/11</t>
+  </si>
+  <si>
+    <t>1/12          -         Cuối khóa</t>
+  </si>
+  <si>
+    <t>15/12        -         Cuối khóa</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -442,6 +460,7 @@
     <col min="2" max="2" width="59.61328125" customWidth="1"/>
     <col min="3" max="3" width="24.15234375" customWidth="1"/>
     <col min="4" max="4" width="9.23046875" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -500,13 +519,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -514,13 +536,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -528,13 +553,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -542,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -556,13 +581,58 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
